--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/18slots.incBrokenGameURLList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/18slots.incBrokenGameURLList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="529">
   <si>
     <t>1 46 ID=28623 Provider=Edict Name=1717 Caribbean Pirates cod=0 description=null ResponseObject=24</t>
   </si>
@@ -359,568 +359,1246 @@
     <t>115 1957 ID=29636 Provider=QuickSpin Name=Golden Glyph 2 cod=0 description=null ResponseObject=24</t>
   </si>
   <si>
-    <t>116 1989 ID=26932 Provider=Edict Name=GoldenGate cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>117 1991 ID=25288 Provider=QuickSpin Name=GoldenGlyph cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>118 1998 ID=25536 Provider=Edict Name=GoldFrenzy cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>119 1999 ID=25283 Provider=QuickSpin Name=GoldilocksandtheWildBears cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>120 2000 ID=26935 Provider=Edict Name=GoldofPersia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>121 2007 ID=75894 Provider=Edict Name=Gong Hei Gong Hei cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>122 2041 ID=29747 Provider=QuickSpin Name=Guardian Of Athens cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>123 2051 ID=26548 Provider=QuickSpin Name=HalloftheMountainKing cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>124 2059 ID=28851 Provider=QuickSpin Name=Hammer of Vulcan cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>125 2102 ID=26930 Provider=Edict Name=HexenKessel cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>126 2106 ID=27468 Provider=QuickSpin Name=HiddenValley cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>127 2107 ID=29460 Provider=Edict Name=Hide &amp; Seek cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>128 2111 ID=76113 Provider=QuickSpin Name=High Street Heist cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>129 2132 ID=29455 Provider=Edict Name=Hocus Pocus Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>130 2159 ID=28616 Provider=Edict Name=Hot Dragon cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>131 2207 ID=26929 Provider=Edict Name=HotFlame cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>132 2218 ID=27528 Provider=QuickSpin Name=HotSync cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>133 2239 ID=75996 Provider=Edict Name=Hyper Fruits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>134 2257 ID=27535 Provider=QuickSpin Name=Illuminous cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>135 2259 ID=26330 Provider=Fugaso Name=ImhotepManuscript cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>136 2280 ID=29437 Provider=Edict Name=Indian Ruby cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>137 2313 ID=27136 Provider=QuickSpin Name=IvanandtheImmortalKing cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>138 2338 ID=29453 Provider=Edict Name=Jamboree Jubilee cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>139 2339 ID=29989 Provider=PushGaming Name=Jammin Jars cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>140 2340 ID=29973 Provider=PushGaming Name=Jammin' Jars 2 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>141 2354 ID=26432 Provider=Fugaso Name=JewelSea cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>142 2378 ID=75787 Provider=Edict Name=Joker Nature cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>143 2386 ID=29993 Provider=PushGaming Name=Joker Troupe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>144 2397 ID=27485 Provider=QuickSpin Name=JokerStrike cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>145 2403 ID=26928 Provider=Edict Name=Jolly'sCap cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>146 2424 ID=78470 Provider=Edict Name=Jungle Jackpots cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>147 2436 ID=29519 Provider=Edict Name=Kaiserwetter cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>148 2448 ID=26927 Provider=Edict Name=KeyoftheNile cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>149 2467 ID=27540 Provider=QuickSpin Name=KingColossus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>150 2471 ID=27562 Provider=Microgaming Name=KingofKaiju:RampageRiches cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>151 2492 ID=26924 Provider=Edict Name=Knight'sLife cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>152 2495 ID=26923 Provider=Edict Name=KnockoutWins cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>153 2520 ID=29978 Provider=PushGaming Name=Land of Zenith cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>154 2547 ID=29595 Provider=Edict Name=Legendary Palace cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>155 2565 ID=27527 Provider=QuickSpin Name=LeprechaunHills cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>156 2572 ID=26920 Provider=Edict Name=LibertyBells cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>157 2575 ID=26919 Provider=Edict Name=LightBlocks cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>158 2579 ID=76075 Provider=Edict Name=Lights of Xia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>159 2593 ID=28846 Provider=QuickSpin Name=Loco the Monkey cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>160 2634 ID=78550 Provider=Edict Name=Luck O' The Irish Fortune Spins cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>161 2702 ID=28587 Provider=Microgaming Name=Lucky Shot cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>162 2739 ID=76120 Provider=Microgaming Name=Machine Gun Unicorn cod=0 description=null ResponseObject=Wrong incoming params</t>
-  </si>
-  <si>
-    <t>163 2740 ID=76557 Provider=PushGaming Name=Mad Cars cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>164 2770 ID=29246 Provider=Edict Name=Magic Mirror Three Lions Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>165 2771 ID=29820 Provider=Edict Name=Magic Mirror Wild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>166 2772 ID=75792 Provider=Edict Name=Magic Monk Rasputin X-Mas Edition cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>167 2807 ID=26916 Provider=Edict Name=MagicMirror cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>168 2808 ID=26915 Provider=Edict Name=MagicMirrorDeluxeII cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>169 2809 ID=26914 Provider=Edict Name=MagicMonkRasputin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>170 2815 ID=75251 Provider=Edict Name=Magika Boola cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>171 2816 ID=77217 Provider=Edict Name=Magika Boola Xmas Spirit cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>172 2863 ID=27546 Provider=QuickSpin Name=Mayana cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>173 2885 ID=26912 Provider=Edict Name=MerkurMagnus7 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>174 2906 ID=29501 Provider=QuickSpin Name=Midas Coins cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>175 2919 ID=27545 Provider=QuickSpin Name=MightyArthur cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>176 2927 ID=78589 Provider=QuickSpin Name=Mine and Melt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>177 2944 ID=26209 Provider=Edict Name=MojitoBeach cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>178 2965 ID=26910 Provider=Edict Name=MonkeyMayhem cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>179 3003 ID=75934 Provider=PushGaming Name=Mount Magmas cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>180 3014 ID=76526 Provider=Edict Name=Multi 7 Wild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>181 3015 ID=29970 Provider=Edict Name=Multi Wild 243 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>182 3016 ID=28625 Provider=Edict Name=Multi Wild Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>183 3020 ID=26909 Provider=Edict Name=MultiFruits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>184 3030 ID=26908 Provider=Edict Name=MultiSupreme81 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>185 3031 ID=25819 Provider=Edict Name=MultiWild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>186 3043 ID=29813 Provider=Edict Name=Mysteries of Karnak cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>187 3053 ID=77044 Provider=PushGaming Name=Mystery Mission - To The Moon cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>188 3055 ID=29982 Provider=PushGaming Name=Mystery Museum cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>189 3089 ID=25285 Provider=QuickSpin Name=Nero'sFortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>190 3100 ID=76001 Provider=PushGaming Name=Nightfall cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>191 3106 ID=26904 Provider=Edict Name=NileLiner cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>192 3117 ID=27560 Provider=QuickSpin Name=NorthernSky cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>193 3130 ID=26903 Provider=Edict Name=Odin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>194 3178 ID=25755 Provider=QuickSpin Name=Panther'sReign cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>195 3237 ID=76940 Provider=Edict Name=Phil and Kanes Halloween cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>196 3242 ID=27529 Provider=QuickSpin Name=Phoenix Sun cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>197 3243 ID=25366 Provider=GameArt Name=PhoenixPrincess cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>198 3248 ID=27544 Provider=QuickSpin Name=PiedPiper cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>199 3289 ID=27483 Provider=QuickSpin Name=Pirate'sCharm cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>200 3293 ID=76258 Provider=Edict Name=Pixielicious cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>201 3296 ID=26899 Provider=Edict Name=PizzaExpress cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>202 3315 ID=26028 Provider=QuickSpin Name=PolarPaws cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>203 3320 ID=28636 Provider=Edict Name=Pop Art Fruits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>204 3348 ID=76998 Provider=QuickSpin Name=Primal Spirits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>205 3350 ID=26534 Provider=QuickSpin Name=Prime Zone cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>206 3391 ID=28824 Provider=Edict Name=Pyramids of the Nile cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>207 3392 ID=26898 Provider=Edict Name=PyramidsofEgypt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>208 3412 ID=26897 Provider=Edict Name=QueenOfMars cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>209 3422 ID=26896 Provider=Edict Name=Racetowin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>210 3432 ID=76116 Provider=Microgaming Name=Ragnarok cod=0 description=null ResponseObject=Wrong incoming params</t>
-  </si>
-  <si>
-    <t>211 3434 ID=26895 Provider=Edict Name=Railroad cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>212 3447 ID=27542 Provider=QuickSpin Name=Rapunzel's Tower cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>213 3450 ID=77040 Provider=QuickSpin Name=Raven Rising cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>214 3452 ID=29991 Provider=PushGaming Name=Razor Shark cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>215 3453 ID=27533 Provider=QuickSpin Name=Razortooth cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>216 3508 ID=75259 Provider=QuickSpin Name=Reno 7's cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>217 3510 ID=26340 Provider=Fugaso Name=Resident 3D cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>218 3528 ID=77165 Provider=PushGaming Name=Retro Tapes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>219 3585 ID=26893 Provider=Edict Name=RisingLiner cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>220 3604 ID=76118 Provider=Microgaming Name=Robyn cod=0 description=null ResponseObject=Wrong incoming params</t>
-  </si>
-  <si>
-    <t>221 3628 ID=28575 Provider=Fugaso Name=Romance V cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>222 3672 ID=75147 Provider=Edict Name=Ruby Sevens cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>223 3699 ID=76176 Provider=QuickSpin Name=Sakura Fortune 2 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>224 3701 ID=25280 Provider=QuickSpin Name=SakuraFortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>225 3703 ID=25918 Provider=Edict Name=SalmonCatch cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>226 3742 ID=77667 Provider=QuickSpin Name=Scatter Monsters cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>227 3756 ID=29438 Provider=Edict Name=Scribes of Thebes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>228 3773 ID=27532 Provider=QuickSpin Name=Second Strike cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>229 3787 ID=27536 Provider=QuickSpin Name=Sevens High cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>230 3788 ID=29953 Provider=QuickSpin Name=Sevens High Ultra cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>231 3812 ID=29968 Provider=Edict Name=Shenyijing cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>232 3834 ID=26889 Provider=Edict Name=SicilianSun cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>233 3844 ID=26888 Provider=Edict Name=Sindbad cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>234 3867 ID=26025 Provider=QuickSpin Name=Skulls UP! cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>235 3880 ID=76618 Provider=QuickSpin Name=Slugger Time cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>236 3882 ID=26887 Provider=Edict Name=SmartRestart cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>237 3887 ID=75389 Provider=Edict Name=Snake God cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>238 3898 ID=28624 Provider=Edict Name=Snow Wolf Supreme cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>239 3911 ID=75144 Provider=Edict Name=Soul of Nature cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>240 3923 ID=76917 Provider=PushGaming Name=Space Stacks cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>241 3943 ID=25850 Provider=Fugaso Name=Spin Joker, Spin! cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>242 3952 ID=27556 Provider=QuickSpin Name=Spinions Beach Party cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>243 3953 ID=76615 Provider=QuickSpin Name=Spinions Game Day cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>244 3954 ID=75394 Provider=QuickSpin Name=Spinions X-mas Party cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>245 3964 ID=26871 Provider=Edict Name=SpiritsOfTheEast cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>246 3996 ID=77108 Provider=Edict Name=Station Red cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>247 4005 ID=29556 Provider=QuickSpin Name=Sticky Bandits 3: Most Wanted cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>248 4006 ID=76617 Provider=QuickSpin Name=Sticky Bandits Trail of Blood cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>249 4009 ID=25284 Provider=QuickSpin Name=StickyBandits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>250 4010 ID=26531 Provider=QuickSpin Name=StickyBandits:WildReturn cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>251 4038 ID=26373 Provider=Edict Name=SuccubusOffer cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>252 4098 ID=29449 Provider=Edict Name=Super Liner cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>253 4110 ID=26885 Provider=Edict Name=Super7Reels cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>254 4129 ID=29963 Provider=Edict Name=Swahili cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>255 4152 ID=26006 Provider=Edict Name=TacoTuesday cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>256 4163 ID=26843 Provider=QuickSpin Name=TalesofDr.Dolittle cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>257 4241 ID=26848 Provider=QuickSpin Name=The Grand cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>258 4291 ID=29988 Provider=PushGaming Name=The Shadow Order cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>259 4292 ID=29527 Provider=Fugaso Name=The Sword &amp; The Magic cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>260 4294 ID=76076 Provider=Edict Name=The Three Musketeers cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>261 4315 ID=26350 Provider=Fugaso Name=TheMummy2018:BlockPays cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>262 4351 ID=26868 Provider=QuickSpin Name=TickettotheStars cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>263 4361 ID=27179 Provider=QuickSpin Name=Tiger's Glory cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>264 4362 ID=29821 Provider=QuickSpin Name=Tiger's Glory Ultra cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>265 4372 ID=76359 Provider=PushGaming Name=Tiki Tumble cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>266 4385 ID=28850 Provider=QuickSpin Name=Titan Thunder: Wrath of Hades cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>267 4393 ID=78456 Provider=Edict Name=Tiwanaku cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>268 4394 ID=29400 Provider=Edict Name=Tizona cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>269 4435 ID=25158 Provider=Edict Name=TreasuresofEgypt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>270 4442 ID=75138 Provider=Edict Name=Tribe of Thunder cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>271 4445 ID=26878 Provider=Edict Name=TrickyTrio cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>272 4461 ID=25823 Provider=Edict Name=TripleTripleChance cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>273 4470 ID=29447 Provider=Edict Name=Tropical Heat cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>274 4477 ID=26336 Provider=Fugaso Name=TrumpItDeluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>275 4504 ID=29445 Provider=Edict Name=Ultra 7 Wild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>276 4536 ID=75249 Provider=Edict Name=Vampires II cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>277 4537 ID=25287 Provider=QuickSpin Name=VampireSenpai cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>278 4563 ID=76733 Provider=Microgaming Name=Video Bingo - Circus cod=0 description=null ResponseObject=Wrong incoming params</t>
-  </si>
-  <si>
-    <t>279 4572 ID=29990 Provider=PushGaming Name=Viking Clash cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>280 4579 ID=29684 Provider=Edict Name=Viking Towers cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>281 4597 ID=75521 Provider=Microgaming Name=Voila cod=0 description=null ResponseObject=Wrong incoming params</t>
-  </si>
-  <si>
-    <t>282 4599 ID=27553 Provider=QuickSpin Name=Volcano Riches cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>283 4603 ID=29443 Provider=Edict Name=Voodoo Shark cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>284 4616 ID=26341 Provider=Fugaso Name=Warlock's Book cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>285 4619 ID=76114 Provider=QuickSpin Name=Warp Wreckers Power Glyph cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>286 4640 ID=75885 Provider=Edict Name=Western Pacific cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>287 4647 ID=29979 Provider=PushGaming Name=Wheel of Wonders cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>288 4691 ID=75183 Provider=QuickSpin Name=Wild Harlequin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>289 4704 ID=29775 Provider=QuickSpin Name=Wild Luchador cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>290 4720 ID=26342 Provider=Fugaso Name=Wild Rodeo cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>291 4727 ID=29441 Provider=Edict Name=Wild Supreme cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>292 4728 ID=29985 Provider=PushGaming Name=Wild Swarm cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>293 4751 ID=25756 Provider=QuickSpin Name=WildCauldron cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>294 4752 ID=25286 Provider=QuickSpin Name=WildChase cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>295 4753 ID=26295 Provider=QuickSpin Name=WildChase:TokyoGo cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>296 4772 ID=26875 Provider=Edict Name=WildSpirit cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>297 4774 ID=26376 Provider=QuickSpin Name=WildTomeoftheWoods cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>298 4794 ID=27526 Provider=QuickSpin Name=Wins of Fortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>299 4800 ID=75350 Provider=Edict Name=Wishing Well cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>300 4846 ID=25920 Provider=Edict Name=WoopWoop cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>301 4848 ID=26874 Provider=Edict Name=WorldofCircus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>302 4882 ID=26872 Provider=Edict Name=Zentaurus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>303 4889 ID=26873 Provider=Edict Name=Zipper cod=0 description=null ResponseObject=24</t>
+    <t>116 1987 ID=27428 Provider=Amatic Name=GoldenBook cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>117 1989 ID=26932 Provider=Edict Name=GoldenGate cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>118 1991 ID=25288 Provider=QuickSpin Name=GoldenGlyph cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>119 1998 ID=25536 Provider=Edict Name=GoldFrenzy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>120 1999 ID=25283 Provider=QuickSpin Name=GoldilocksandtheWildBears cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>121 2000 ID=26935 Provider=Edict Name=GoldofPersia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>122 2007 ID=75894 Provider=Edict Name=Gong Hei Gong Hei cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>123 2041 ID=29747 Provider=QuickSpin Name=Guardian Of Athens cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>124 2051 ID=26548 Provider=QuickSpin Name=HalloftheMountainKing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>125 2059 ID=28851 Provider=QuickSpin Name=Hammer of Vulcan cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>126 2102 ID=26930 Provider=Edict Name=HexenKessel cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>127 2106 ID=27468 Provider=QuickSpin Name=HiddenValley cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>128 2107 ID=29460 Provider=Edict Name=Hide &amp; Seek cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>129 2111 ID=76113 Provider=QuickSpin Name=High Street Heist cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>130 2132 ID=29455 Provider=Edict Name=Hocus Pocus Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>131 2159 ID=28616 Provider=Edict Name=Hot Dragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>132 2207 ID=26929 Provider=Edict Name=HotFlame cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>133 2218 ID=27528 Provider=QuickSpin Name=HotSync cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>134 2239 ID=75996 Provider=Edict Name=Hyper Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>135 2257 ID=27535 Provider=QuickSpin Name=Illuminous cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>136 2259 ID=26330 Provider=Fugaso Name=ImhotepManuscript cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>137 2280 ID=29437 Provider=Edict Name=Indian Ruby cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>138 2313 ID=27136 Provider=QuickSpin Name=IvanandtheImmortalKing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>139 2338 ID=29453 Provider=Edict Name=Jamboree Jubilee cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>140 2339 ID=29989 Provider=PushGaming Name=Jammin Jars cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>141 2340 ID=29973 Provider=PushGaming Name=Jammin' Jars 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>142 2354 ID=26432 Provider=Fugaso Name=JewelSea cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>143 2378 ID=75787 Provider=Edict Name=Joker Nature cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>144 2386 ID=29993 Provider=PushGaming Name=Joker Troupe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>145 2397 ID=27485 Provider=QuickSpin Name=JokerStrike cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>146 2403 ID=26928 Provider=Edict Name=Jolly'sCap cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>147 2424 ID=78470 Provider=Edict Name=Jungle Jackpots cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>148 2436 ID=29519 Provider=Edict Name=Kaiserwetter cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>149 2448 ID=26927 Provider=Edict Name=KeyoftheNile cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>150 2467 ID=27540 Provider=QuickSpin Name=KingColossus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>151 2471 ID=27562 Provider=Microgaming Name=KingofKaiju:RampageRiches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>152 2492 ID=26924 Provider=Edict Name=Knight'sLife cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>153 2495 ID=26923 Provider=Edict Name=KnockoutWins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>154 2520 ID=29978 Provider=PushGaming Name=Land of Zenith cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>155 2547 ID=29595 Provider=Edict Name=Legendary Palace cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>156 2565 ID=27527 Provider=QuickSpin Name=LeprechaunHills cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>157 2572 ID=26920 Provider=Edict Name=LibertyBells cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>158 2575 ID=26919 Provider=Edict Name=LightBlocks cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>159 2579 ID=76075 Provider=Edict Name=Lights of Xia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>160 2593 ID=28846 Provider=QuickSpin Name=Loco the Monkey cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>161 2634 ID=78550 Provider=Edict Name=Luck O' The Irish Fortune Spins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>162 2702 ID=28587 Provider=Microgaming Name=Lucky Shot cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>163 2739 ID=76120 Provider=Microgaming Name=Machine Gun Unicorn cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>164 2740 ID=76557 Provider=PushGaming Name=Mad Cars cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>165 2770 ID=29246 Provider=Edict Name=Magic Mirror Three Lions Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>166 2771 ID=29820 Provider=Edict Name=Magic Mirror Wild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>167 2772 ID=75792 Provider=Edict Name=Magic Monk Rasputin X-Mas Edition cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>168 2807 ID=26916 Provider=Edict Name=MagicMirror cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>169 2808 ID=26915 Provider=Edict Name=MagicMirrorDeluxeII cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>170 2809 ID=26914 Provider=Edict Name=MagicMonkRasputin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>171 2815 ID=75251 Provider=Edict Name=Magika Boola cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>172 2816 ID=77217 Provider=Edict Name=Magika Boola Xmas Spirit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>173 2863 ID=27546 Provider=QuickSpin Name=Mayana cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>174 2885 ID=26912 Provider=Edict Name=MerkurMagnus7 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>175 2906 ID=29501 Provider=QuickSpin Name=Midas Coins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>176 2919 ID=27545 Provider=QuickSpin Name=MightyArthur cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>177 2927 ID=78589 Provider=QuickSpin Name=Mine and Melt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>178 2944 ID=26209 Provider=Edict Name=MojitoBeach cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>179 2965 ID=26910 Provider=Edict Name=MonkeyMayhem cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>180 3003 ID=75934 Provider=PushGaming Name=Mount Magmas cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>181 3014 ID=76526 Provider=Edict Name=Multi 7 Wild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>182 3015 ID=29970 Provider=Edict Name=Multi Wild 243 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>183 3016 ID=28625 Provider=Edict Name=Multi Wild Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>184 3020 ID=26909 Provider=Edict Name=MultiFruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>185 3030 ID=26908 Provider=Edict Name=MultiSupreme81 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>186 3031 ID=25819 Provider=Edict Name=MultiWild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>187 3043 ID=29813 Provider=Edict Name=Mysteries of Karnak cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>188 3053 ID=77044 Provider=PushGaming Name=Mystery Mission - To The Moon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>189 3055 ID=29982 Provider=PushGaming Name=Mystery Museum cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>190 3089 ID=25285 Provider=QuickSpin Name=Nero'sFortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>191 3100 ID=76001 Provider=PushGaming Name=Nightfall cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>192 3106 ID=26904 Provider=Edict Name=NileLiner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>193 3117 ID=27560 Provider=QuickSpin Name=NorthernSky cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>194 3130 ID=26903 Provider=Edict Name=Odin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>195 3178 ID=25755 Provider=QuickSpin Name=Panther'sReign cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>196 3237 ID=76940 Provider=Edict Name=Phil and Kanes Halloween cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>197 3242 ID=27529 Provider=QuickSpin Name=Phoenix Sun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>198 3243 ID=25366 Provider=GameArt Name=PhoenixPrincess cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>199 3248 ID=27544 Provider=QuickSpin Name=PiedPiper cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>200 3289 ID=27483 Provider=QuickSpin Name=Pirate'sCharm cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>201 3293 ID=76258 Provider=Edict Name=Pixielicious cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>202 3296 ID=26899 Provider=Edict Name=PizzaExpress cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>203 3315 ID=26028 Provider=QuickSpin Name=PolarPaws cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>204 3320 ID=28636 Provider=Edict Name=Pop Art Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>205 3348 ID=76998 Provider=QuickSpin Name=Primal Spirits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>206 3350 ID=26534 Provider=QuickSpin Name=Prime Zone cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>207 3391 ID=28824 Provider=Edict Name=Pyramids of the Nile cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>208 3392 ID=26898 Provider=Edict Name=PyramidsofEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>209 3412 ID=26897 Provider=Edict Name=QueenOfMars cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>210 3422 ID=26896 Provider=Edict Name=Racetowin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>211 3432 ID=76116 Provider=Microgaming Name=Ragnarok cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>212 3434 ID=26895 Provider=Edict Name=Railroad cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>213 3447 ID=27542 Provider=QuickSpin Name=Rapunzel's Tower cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>214 3450 ID=77040 Provider=QuickSpin Name=Raven Rising cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>215 3452 ID=29991 Provider=PushGaming Name=Razor Shark cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>216 3453 ID=27533 Provider=QuickSpin Name=Razortooth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>217 3508 ID=75259 Provider=QuickSpin Name=Reno 7's cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>218 3510 ID=26340 Provider=Fugaso Name=Resident 3D cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>219 3528 ID=77165 Provider=PushGaming Name=Retro Tapes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>220 3585 ID=26893 Provider=Edict Name=RisingLiner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>221 3604 ID=76118 Provider=Microgaming Name=Robyn cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>222 3628 ID=28575 Provider=Fugaso Name=Romance V cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>223 3672 ID=75147 Provider=Edict Name=Ruby Sevens cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>224 3699 ID=76176 Provider=QuickSpin Name=Sakura Fortune 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>225 3701 ID=25280 Provider=QuickSpin Name=SakuraFortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>226 3703 ID=25918 Provider=Edict Name=SalmonCatch cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>227 3742 ID=77667 Provider=QuickSpin Name=Scatter Monsters cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>228 3756 ID=29438 Provider=Edict Name=Scribes of Thebes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>229 3773 ID=27532 Provider=QuickSpin Name=Second Strike cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>230 3787 ID=27536 Provider=QuickSpin Name=Sevens High cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>231 3788 ID=29953 Provider=QuickSpin Name=Sevens High Ultra cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>232 3812 ID=29968 Provider=Edict Name=Shenyijing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>233 3834 ID=26889 Provider=Edict Name=SicilianSun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>234 3844 ID=26888 Provider=Edict Name=Sindbad cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>235 3867 ID=26025 Provider=QuickSpin Name=Skulls UP! cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>236 3880 ID=76618 Provider=QuickSpin Name=Slugger Time cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>237 3882 ID=26887 Provider=Edict Name=SmartRestart cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>238 3887 ID=75389 Provider=Edict Name=Snake God cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>239 3898 ID=28624 Provider=Edict Name=Snow Wolf Supreme cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>240 3911 ID=75144 Provider=Edict Name=Soul of Nature cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>241 3923 ID=76917 Provider=PushGaming Name=Space Stacks cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>242 3943 ID=25850 Provider=Fugaso Name=Spin Joker, Spin! cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>243 3952 ID=27556 Provider=QuickSpin Name=Spinions Beach Party cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>244 3953 ID=76615 Provider=QuickSpin Name=Spinions Game Day cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>245 3954 ID=75394 Provider=QuickSpin Name=Spinions X-mas Party cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>246 3964 ID=26871 Provider=Edict Name=SpiritsOfTheEast cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>247 3996 ID=77108 Provider=Edict Name=Station Red cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>248 4005 ID=29556 Provider=QuickSpin Name=Sticky Bandits 3: Most Wanted cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>249 4006 ID=76617 Provider=QuickSpin Name=Sticky Bandits Trail of Blood cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>250 4009 ID=25284 Provider=QuickSpin Name=StickyBandits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>251 4010 ID=26531 Provider=QuickSpin Name=StickyBandits:WildReturn cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>252 4038 ID=26373 Provider=Edict Name=SuccubusOffer cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>253 4061 ID=25124 Provider=PlaysonDirect Name=SunnyFruitsHoldandWin cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>254 4098 ID=29449 Provider=Edict Name=Super Liner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>255 4110 ID=26885 Provider=Edict Name=Super7Reels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>256 4129 ID=29963 Provider=Edict Name=Swahili cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>257 4152 ID=26006 Provider=Edict Name=TacoTuesday cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>258 4163 ID=26843 Provider=QuickSpin Name=TalesofDr.Dolittle cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>259 4241 ID=26848 Provider=QuickSpin Name=The Grand cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>260 4291 ID=29988 Provider=PushGaming Name=The Shadow Order cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>261 4292 ID=29527 Provider=Fugaso Name=The Sword &amp; The Magic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>262 4294 ID=76076 Provider=Edict Name=The Three Musketeers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>263 4315 ID=26350 Provider=Fugaso Name=TheMummy2018:BlockPays cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>264 4351 ID=26868 Provider=QuickSpin Name=TickettotheStars cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>265 4361 ID=27179 Provider=QuickSpin Name=Tiger's Glory cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>266 4362 ID=29821 Provider=QuickSpin Name=Tiger's Glory Ultra cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>267 4372 ID=76359 Provider=PushGaming Name=Tiki Tumble cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>268 4385 ID=28850 Provider=QuickSpin Name=Titan Thunder: Wrath of Hades cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>269 4393 ID=78456 Provider=Edict Name=Tiwanaku cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>270 4394 ID=29400 Provider=Edict Name=Tizona cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>271 4435 ID=25158 Provider=Edict Name=TreasuresofEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>272 4442 ID=75138 Provider=Edict Name=Tribe of Thunder cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>273 4445 ID=26878 Provider=Edict Name=TrickyTrio cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>274 4461 ID=25823 Provider=Edict Name=TripleTripleChance cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>275 4462 ID=26584 Provider=Evoplay Name=TriptotheFuture cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>276 4463 ID=77615 Provider=Microgaming Name=Trojan Kingdom cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>277 4464 ID=29738 Provider=Spinomenal Name=Trojan Tales cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>278 4465 ID=75774 Provider=Microgaming Name=Trojan Treasure cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>279 4466 ID=26991 Provider=PlaynGo Name=Troll Hunters cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>280 4467 ID=25220 Provider=PlaynGo Name=TrollHunters2 cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>281 4468 ID=26415 Provider=Yggdrasil Name=Trolls Bridge cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>282 4469 ID=76585 Provider=ISoftBet Name=Tropical Bonanza cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>283 4470 ID=29447 Provider=Edict Name=Tropical Heat cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>284 4471 ID=66653 Provider=NucleusGaming Name=Tropical Splash cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>285 4472 ID=29217 Provider=Microgaming Name=Tropical Wilds cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>286 4473 ID=27324 Provider=Spigo Name=Tropicana cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>287 4474 ID=75103 Provider=WorldMatch Name=True American cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>288 4475 ID=75795 Provider=NoLimitCity Name=True Grit cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>289 4476 ID=25259 Provider=Betsoft Name=True Illusions cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>290 4477 ID=26336 Provider=Fugaso Name=TrumpItDeluxe cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>291 4478 ID=25183 Provider=Fugaso Name=TrumpItDeluxeEPICWAYS cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>292 4479 ID=28569 Provider=WorldMatch Name=Tuan Yuan Panda cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>293 4480 ID=76898 Provider=Habanero Name=Tuk Tuk Thailand cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>294 4481 ID=26719 Provider=Wazdan Name=Turbo Play cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>295 4482 ID=28968 Provider=Wazdan Name=Turbo Poker cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>296 4483 ID=27149 Provider=Apollo Name=Turbo Slots cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>297 4484 ID=25763 Provider=Apollo Name=TurboSlots81 cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>298 4485 ID=25896 Provider=Thunderkick Name=Turning Totems cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>299 4486 ID=29590 Provider=Microgaming Name=Tutankhamun Pull Tab cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>300 4487 ID=27200 Provider=Yggdrasil Name=Tut'sTwister cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>301 4488 ID=26496 Provider=Microgaming Name=Tweethearts cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>302 4489 ID=27422 Provider=Amatic Name=TweetyBirds cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>303 4490 ID=75775 Provider=Microgaming Name=Twice the Money cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>304 4491 ID=25672 Provider=Microgaming Name=TwicetheDiamonds cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>305 4492 ID=76265 Provider=Spinomenal Name=Twin Diamonds cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>306 4493 ID=77187 Provider=Spinomenal Name=Twin Diamonds Xmas cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>307 4494 ID=67228 Provider=DragonGaming Name=Twin Dragons cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>308 4495 ID=17603 Provider=NetEnt Name=Twin Happiness cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>309 4496 ID=25630 Provider=Microgaming Name=Twin Harlequin cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>310 4497 ID=17044 Provider=NetEnt Name=Twin Spin cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>311 4498 ID=17628 Provider=NetEnt Name=Twin Spin Deluxe cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>312 4499 ID=17652 Provider=NetEnt Name=twinspinmw cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>313 4500 ID=25236 Provider=PlaynGo Name=TwistedSister cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>314 4501 ID=75119 Provider=ISoftBet Name=Tyrant King Megaways cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>315 4502 ID=75400 Provider=WorldMatch Name=Uga Age HD cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>316 4503 ID=75510 Provider=ISoftBet Name=Ultimate Super Reels cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>317 4504 ID=29445 Provider=Edict Name=Ultra 7 Wild cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>318 4505 ID=54066 Provider=PragmaticPlay Name=Ultra Burn cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>319 4506 ID=76586 Provider=PlaysonDirect Name=Ultra Fortunator: Hold and Win cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>320 4507 ID=54022 Provider=PragmaticPlay Name=Ultra Hold and Spin cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>321 4508 ID=27362 Provider=Amatic Name=UltraSeven cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>322 4509 ID=75121 Provider=Platipus Name=Un Dia De Muertos cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>323 4510 ID=76566 Provider=Microgaming Name=Undead Fortune cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>324 4511 ID=25101 Provider=Betsoft Name=Under the Bed cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>325 4512 ID=25463 Provider=Betsoft Name=UndertheSea cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>326 4513 ID=75017 Provider=Microgaming Name=Unicorn Bliss cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>327 4514 ID=29154 Provider=Wazdan Name=Unicorn Reels cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>328 4515 ID=25778 Provider=Leander Name=Universal Cup cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>329 4516 ID=29281 Provider=Evoplay Name=Unlimited Wishes cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>330 4517 ID=25950 Provider=Genii Name=UpperCrustAbbey cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>331 4518 ID=77163 Provider=PlaynGo Name=USA Flip cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>332 4519 ID=26617 Provider=Evoplay Name=USSRSeventies cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>333 4520 ID=75931 Provider=Spinomenal Name=Valentine Collection 10 Lines cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>334 4521 ID=75932 Provider=Spinomenal Name=Valentine Collection 20 Lines cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>335 4522 ID=75921 Provider=Spinomenal Name=Valentine Collection 30 Lines cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>336 4523 ID=75918 Provider=Spinomenal Name=Valentine Collection 40 Lines cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>337 4524 ID=76710 Provider=Spinomenal Name=Valentine’s Fortune Dice cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>338 4525 ID=27084 Provider=WACS Name=Valentine’sGift cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>339 4526 ID=29296 Provider=Spinomenal Name=Valentine's Fortune cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>340 4527 ID=26751 Provider=Wazdan Name=Valhalla cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>341 4528 ID=29625 Provider=Microgaming Name=Valhalla Gold cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>342 4529 ID=75330 Provider=Yggdrasil Name=Valkyries cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>343 4530 ID=76228 Provider=Yggdrasil Name=Valley of the Gods cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>344 4531 ID=76210 Provider=Yggdrasil Name=Valley of the Gods 2 cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>345 4532 ID=27550 Provider=BoomingGames Name=ValleyofPharaohs cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>346 4533 ID=75399 Provider=WorldMatch Name=Vampire Killer HD cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>347 4534 ID=27676 Provider=Microgaming Name=Vampire:TheMasquerade-LasVegas cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>348 4535 ID=27418 Provider=Amatic Name=Vampires cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>349 4536 ID=75249 Provider=Edict Name=Vampires II cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>350 4537 ID=25287 Provider=QuickSpin Name=VampireSenpai cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>351 4538 ID=75197 Provider=ISoftBet Name=Van der Wilde and The Outlaws cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>352 4539 ID=25205 Provider=Yggdrasil Name=VaultofFortune cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>353 4540 ID=77116 Provider=Spinomenal Name=Vegas - Chase'N'Win cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>354 4541 ID=76035 Provider=Microgaming Name=Vegas Cash cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>355 4542 ID=26017 Provider=Microgaming Name=Vegas Downtown Blackjack cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>356 4543 ID=76546 Provider=Microgaming Name=Vegas Golden Bells cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>357 4544 ID=29883 Provider=ISoftBet Name=Vegas High Roller cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>358 4545 ID=26819 Provider=Wazdan Name=Vegas Hot cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>359 4546 ID=26718 Provider=Wazdan Name=Vegas Hot 81 cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>360 4547 ID=54025 Provider=PragmaticPlay Name=Vegas Magic cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>361 4548 ID=26651 Provider=Evoplay Name=Vegas Nights cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>362 4549 ID=26717 Provider=Wazdan Name=Vegas Reels II cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>363 4550 ID=65594 Provider=NucleusGaming Name=Vegas Road Trip cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>364 4551 ID=28434 Provider=Microgaming Name=Vegas Single Deck Blackjack cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>365 4552 ID=28488 Provider=Microgaming Name=Vegas Single Deck Blackjack Gold cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>366 4553 ID=28923 Provider=Genii Name=Vegas Strip Blackjack cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>367 4554 ID=28483 Provider=Microgaming Name=Vegas Strip Blackjack Gold cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>368 4555 ID=28864 Provider=Genii Name=Vegas Triple Pay Deluxe cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>369 4556 ID=27471 Provider=BoomingGames Name=Vegas VIP Gold cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>370 4557 ID=27516 Provider=BoomingGames Name=Vegas Wins cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>371 4558 ID=27080 Provider=WACS Name=Veggietoons cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>372 4559 ID=25357 Provider=GameArt Name=Venetia cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>373 4560 ID=17045 Provider=NetEnt Name=Victorious cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>374 4561 ID=76735 Provider=Microgaming Name=Video Bingo - Bikers cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>375 4562 ID=76734 Provider=Microgaming Name=Video Bingo - Buffalo cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>376 4563 ID=76733 Provider=Microgaming Name=Video Bingo - Circus cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>377 4564 ID=76732 Provider=Microgaming Name=Video Bingo - Cleopatra cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>378 4565 ID=76731 Provider=Microgaming Name=Video Bingo - HollyWood cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>379 4566 ID=76730 Provider=Microgaming Name=Video Bingo - Magician cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>380 4567 ID=76729 Provider=Microgaming Name=Video Bingo - Rock Live cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>381 4568 ID=76728 Provider=Microgaming Name=Video Bingo - Sea cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>382 4569 ID=76727 Provider=Microgaming Name=Video Bingo - Sunken City cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>383 4570 ID=76726 Provider=Microgaming Name=Video Bingo - Sweet Home cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>384 4571 ID=25258 Provider=Betsoft Name=Viking Age cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>385 4572 ID=29990 Provider=PushGaming Name=Viking Clash cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>386 4573 ID=29722 Provider=PariPlay Name=Viking Glory cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>387 4574 ID=75524 Provider=WorldMatch Name=Viking Legend HD cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>388 4575 ID=75922 Provider=Microgaming Name=Viking Queen cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>389 4576 ID=29465 Provider=Leander Name=Viking Raid Zone cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>390 4577 ID=75721 Provider=Microgaming Name=Viking Reign cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>391 4578 ID=76797 Provider=PlaynGo Name=Viking Runecraft Bingo cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>392 4579 ID=29684 Provider=Edict Name=Viking Towers cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>393 4580 ID=26555 Provider=Betsoft Name=Viking Voyage cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>394 4581 ID=26184 Provider=Genii Name=Vikingdom cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>395 4582 ID=26990 Provider=PlaynGo Name=VikingRunecraft cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>396 4583 ID=17657 Provider=NetEnt Name=vikings cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>397 4584 ID=76230 Provider=Yggdrasil Name=Vikings go Berzerk cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>398 4585 ID=75153 Provider=Yggdrasil Name=Vikings Go Berzerk: Reloaded cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>399 4586 ID=76202 Provider=Yggdrasil Name=Vikings Go To Hell cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>400 4587 ID=75966 Provider=Yggdrasil Name=Vikings go to Valhalla cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>401 4588 ID=76221 Provider=Yggdrasil Name=Vikings go Wild cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>402 4589 ID=25128 Provider=PlaysonDirect Name=VikingsFortune:HoldandWin cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>403 4590 ID=27634 Provider=Habanero Name=Viking'sPlunder cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>404 4591 ID=28007 Provider=Microgaming Name=VinylCountdown cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>405 4592 ID=28477 Provider=Betsoft Name=Vip American Roulette cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>406 4593 ID=28478 Provider=Betsoft Name=Vip European Roulette cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>407 4594 ID=27517 Provider=BoomingGames Name=VIPFilthyRiches cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>408 4595 ID=25938 Provider=Microgaming Name=Viva Las Vegas cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>409 4596 ID=75022 Provider=Microgaming Name=Vlads Castle cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>410 4597 ID=75521 Provider=Microgaming Name=Voila cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>411 4598 ID=26112 Provider=Microgaming Name=VolatileSlot cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>412 4599 ID=27553 Provider=QuickSpin Name=Volcano Riches cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>413 4600 ID=26237 Provider=Microgaming Name=VomitingUnicorns cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>414 4601 ID=76389 Provider=Yggdrasil Name=Voodoo Hex cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>415 4602 ID=54083 Provider=PragmaticPlay Name=Voodoo Magic cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>416 4603 ID=29443 Provider=Edict Name=Voodoo Shark cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>417 4604 ID=27077 Provider=WACS Name=VoxSlot cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>418 4605 ID=29795 Provider=Spinomenal Name=Wacky Monkey cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>419 4606 ID=77023 Provider=Spinomenal Name=Wacky Monkey - Chase'N'Win cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>420 4607 ID=76717 Provider=Spinomenal Name=Wacky Monkey Dice cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>421 4608 ID=27629 Provider=Microgaming Name=Wacky Panda cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>422 4609 ID=76747 Provider=Microgaming Name=Wacky Waves cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>423 4610 ID=27085 Provider=WACS Name=Waikiki Heroes cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>424 4611 ID=78139 Provider=NoLimitCity Name=Walk Of Shame cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>425 4612 ID=75156 Provider=Microgaming Name=Wanted Dead or a Wild cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>426 4613 ID=28785 Provider=Microgaming Name=Wanted Outlaws cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>427 4614 ID=66769 Provider=Hacksaw Name=Wanted: Dead or a Wild cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>428 4615 ID=68662 Provider=NucleusGaming Name=War cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>429 4616 ID=26341 Provider=Fugaso Name=Warlock's Book cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>430 4617 ID=17046 Provider=NetEnt Name=Warlords cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>431 4618 ID=27150 Provider=Apollo Name=WaroftheTitans cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>432 4619 ID=76114 Provider=QuickSpin Name=Warp Wreckers Power Glyph cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>433 4620 ID=28693 Provider=NoLimitCity Name=Warrior Graveyard cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>434 4621 ID=67031 Provider=Hacksaw Name=Warrior Ways cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>435 4622 ID=76220 Provider=Yggdrasil Name=Water Blox Gigablox cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>436 4623 ID=27575 Provider=Habanero Name=Ways Of Fortune cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>437 4624 ID=76307 Provider=Platipus Name=Ways of Gauls cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>438 4625 ID=75091 Provider=Leander Name=Ways of Labyrinth cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>439 4626 ID=67152 Provider=BGaming Name=WBC Ring of Riches cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>440 4627 ID=29160 Provider=Platipus Name=Wealth of Wisdom cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>441 4628 ID=25195 Provider=Habanero Name=WealthInn cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>442 4629 ID=25093 Provider=Betsoft Name=Weekend In Vegas cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>443 4630 ID=27633 Provider=Habanero Name=WeirdScience cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>444 4631 ID=26716 Provider=Wazdan Name=Welcome To Hell 81 cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>445 4632 ID=28862 Provider=Genii Name=Well Oil Be! cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>446 4633 ID=25895 Provider=Thunderkick Name=WellofWonders cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>447 4640 ID=75885 Provider=Edict Name=Western Pacific cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>448 4647 ID=29979 Provider=PushGaming Name=Wheel of Wonders cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>449 4691 ID=75183 Provider=QuickSpin Name=Wild Harlequin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>450 4704 ID=29775 Provider=QuickSpin Name=Wild Luchador cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>451 4720 ID=26342 Provider=Fugaso Name=Wild Rodeo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>452 4727 ID=29441 Provider=Edict Name=Wild Supreme cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>453 4728 ID=29985 Provider=PushGaming Name=Wild Swarm cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>454 4751 ID=25756 Provider=QuickSpin Name=WildCauldron cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>455 4752 ID=25286 Provider=QuickSpin Name=WildChase cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>456 4753 ID=26295 Provider=QuickSpin Name=WildChase:TokyoGo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>457 4772 ID=26875 Provider=Edict Name=WildSpirit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>458 4774 ID=26376 Provider=QuickSpin Name=WildTomeoftheWoods cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>459 4794 ID=27526 Provider=QuickSpin Name=Wins of Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>460 4800 ID=75350 Provider=Edict Name=Wishing Well cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>461 4846 ID=25920 Provider=Edict Name=WoopWoop cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>462 4848 ID=26874 Provider=Edict Name=WorldofCircus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>463 4882 ID=26872 Provider=Edict Name=Zentaurus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>464 4889 ID=26873 Provider=Edict Name=Zipper cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>465 5049 ID=78310 Provider=PlayTech Name=Penguin Vacation cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>466 5050 ID=78242 Provider=PlayTech Name=Pharaohs Daughter cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>467 5051 ID=78309 Provider=PlayTech Name=Pharaoh's Secrets cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>468 5052 ID=78223 Provider=PlayTech Name=Pigeons From Space! cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>469 5053 ID=14456 Provider=PragmaticPlay Name=PIZZA! PIZZA? PIZZA! cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>470 5054 ID=78396 Provider=PlayTech Name=Plenty O`Fortune cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>471 5055 ID=78218 Provider=PlayTech Name=Plunder Ahoy cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>472 5056 ID=78155 Provider=PlayTech Name=Power Zones: Ishtar cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>473 5057 ID=78156 Provider=PlayTech Name=Power Zones: Thunder Birds cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>474 5058 ID=78307 Provider=PlayTech Name=Premium Blackjack Single Hand cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>475 5059 ID=78246 Provider=PlayTech Name=Pumpkin Bonanza cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>476 5060 ID=78212 Provider=PlayTech Name=Pyramid Linx cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>477 5061 ID=78177 Provider=PlayTech Name=Pyramid Valley: Power Zones cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>478 5062 ID=78216 Provider=PlayTech Name=Qins Empire - Caishens Temple cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>479 5063 ID=78214 Provider=PlayTech Name=Qins Empire - Celestial Guardians cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>480 5064 ID=78245 Provider=PlayTech Name=Quest West cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>481 5065 ID=78279 Provider=PlayTech Name=Record Riches cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>482 5066 ID=78244 Provider=PlayTech Name=Retro Rush cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>483 5067 ID=78305 Provider=PlayTech Name=Rome&amp;Glory cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>484 5068 ID=78303 Provider=PlayTech Name=Royal Respin Deluxe cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>485 5069 ID=78302 Provider=PlayTech Name=Sacred Stones cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>486 5070 ID=78301 Provider=PlayTech Name=Safari Heat cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>487 5071 ID=78173 Provider=PlayTech Name=Sahara Riches - Cash Collect Megaways cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>488 5072 ID=78410 Provider=PlayTech Name=Santa Surprise cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>489 5073 ID=78243 Provider=PlayTech Name=Savage Jungle cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>490 5074 ID=78300 Provider=PlayTech Name=Secrets of the Amazon cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>491 5075 ID=78241 Provider=PlayTech Name=Selfie Elfie cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>492 5076 ID=78210 Provider=PlayTech Name=Sharks Blitz cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>493 5077 ID=78299 Provider=PlayTech Name=Sherlock Mystery cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>494 5078 ID=78240 Provider=PlayTech Name=Shields of Rome cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>495 5079 ID=78298 Provider=PlayTech Name=Silent Samurai cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>496 5080 ID=78297 Provider=PlayTech Name=Silver Bullet cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>497 5081 ID=78169 Provider=PlayTech Name=Silver Bullet Bandit: Cash Collect cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>498 5082 ID=78296 Provider=PlayTech Name=Sinbad's Golden Voyage cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>499 5083 ID=78239 Provider=PlayTech Name=Sky Queen cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>500 5084 ID=78376 Provider=PlayTech Name=Sorcerer's Guild of Magic cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>501 5085 ID=78188 Provider=PlayTech Name=Space Hunter: Shoot for Cash cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>502 5086 ID=78238 Provider=PlayTech Name=Stallion strike cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>503 5087 ID=78237 Provider=PlayTech Name=Starmada Exiles cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>504 5088 ID=78236 Provider=PlayTech Name=Stars Ablaze cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>505 5089 ID=78295 Provider=PlayTech Name=Stars Awakening cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>506 5090 ID=78294 Provider=PlayTech Name=Sun Wukong cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>507 5091 ID=14457 Provider=PragmaticPlay Name=Sweet Powernudge cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>508 5092 ID=78292 Provider=PlayTech Name=Thai Paradise cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>509 5093 ID=78235 Provider=PlayTech Name=The Great Reveal cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>510 5094 ID=78291 Provider=PlayTech Name=The Riches of Don Quixote cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>511 5095 ID=78290 Provider=PlayTech Name=Tiger Claw cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>512 5096 ID=78234 Provider=PlayTech Name=Tiger Stacks cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>513 5097 ID=78233 Provider=PlayTech Name=Tip Top Totems cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>514 5098 ID=78232 Provider=PlayTech Name=Toads Gift cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>515 5099 ID=78289 Provider=PlayTech Name=Treasures of the Lamps cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>516 5100 ID=78435 Provider=PlayTech Name=Triple Stop: Mermaids Find cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>517 5101 ID=78288 Provider=PlayTech Name=True Love cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>518 5102 ID=78231 Provider=PlayTech Name=Tsai Shen's Gift cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>519 5103 ID=78287 Provider=PlayTech Name=Vacation Station cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>520 5104 ID=78286 Provider=PlayTech Name=Vacation Station Deluxe cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>521 5105 ID=78230 Provider=PlayTech Name=Vampire Princess of Darkness cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>522 5106 ID=78206 Provider=PlayTech Name=Ways of the Genie - Thundershots cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>523 5107 ID=78285 Provider=PlayTech Name=Ways Of The Phoenix cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>524 5108 ID=78413 Provider=PlayTech Name=White King cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>525 5109 ID=78411 Provider=PlayTech Name=White King 2 cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>526 5110 ID=78284 Provider=PlayTech Name=Wild Gambler cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>527 5111 ID=78381 Provider=PlayTech Name=Wild Lava cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>528 5112 ID=78189 Provider=PlayTech Name=Wild Linx cod=null description=null ResponseObject=null</t>
+  </si>
+  <si>
+    <t>529 5113 ID=78229 Provider=PlayTech Name=Wild West Wilds cod=null description=null ResponseObject=null</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A303"/>
+  <dimension ref="A1:A529"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2489,6 +3167,1136 @@
         <v>302</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
